--- a/Tesis/Resultados/Escalon/CC/PIE_Izquierdo_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/CC/PIE_Izquierdo_layer_1.xlsx
@@ -31,436 +31,436 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.09299518167972565]</t>
-  </si>
-  <si>
-    <t>[0.029245175421237946]</t>
-  </si>
-  <si>
-    <t>[-0.25951510667800903]</t>
-  </si>
-  <si>
-    <t>[-0.13808104395866394]</t>
-  </si>
-  <si>
-    <t>[0.5648706555366516]</t>
-  </si>
-  <si>
-    <t>[0.4383901357650757]</t>
-  </si>
-  <si>
-    <t>[0.19901342689990997]</t>
-  </si>
-  <si>
-    <t>[0.2708616256713867]</t>
-  </si>
-  <si>
-    <t>[-0.11053572595119476]</t>
-  </si>
-  <si>
-    <t>[0.3407583236694336]</t>
-  </si>
-  <si>
-    <t>[-0.6082159876823425]</t>
-  </si>
-  <si>
-    <t>[0.06621654331684113]</t>
-  </si>
-  <si>
-    <t>[-0.024064553901553154]</t>
-  </si>
-  <si>
-    <t>[0.5608304738998413]</t>
-  </si>
-  <si>
-    <t>[-0.3101775646209717]</t>
-  </si>
-  <si>
-    <t>[-0.025254908949136734]</t>
-  </si>
-  <si>
-    <t>[0.3997812569141388]</t>
-  </si>
-  <si>
-    <t>[-0.27136263251304626]</t>
-  </si>
-  <si>
-    <t>[-0.45727989077568054]</t>
-  </si>
-  <si>
-    <t>[0.3742585778236389]</t>
-  </si>
-  <si>
-    <t>[-0.28884628415107727]</t>
-  </si>
-  <si>
-    <t>[0.2933778762817383]</t>
-  </si>
-  <si>
-    <t>[-0.4885062873363495]</t>
-  </si>
-  <si>
-    <t>[-0.008145005442202091]</t>
-  </si>
-  <si>
-    <t>[-0.4149004817008972]</t>
-  </si>
-  <si>
-    <t>[0.23986777663230896]</t>
-  </si>
-  <si>
-    <t>[-0.4789382815361023]</t>
-  </si>
-  <si>
-    <t>[-0.2450251281261444]</t>
-  </si>
-  <si>
-    <t>[-0.16877955198287964]</t>
-  </si>
-  <si>
-    <t>[0.16985376179218292]</t>
-  </si>
-  <si>
-    <t>[0.17790380120277405]</t>
-  </si>
-  <si>
-    <t>[0.0262712724506855]</t>
-  </si>
-  <si>
-    <t>[-0.19235199689865112]</t>
-  </si>
-  <si>
-    <t>[0.2866669297218323]</t>
-  </si>
-  <si>
-    <t>[-0.20989783108234406]</t>
-  </si>
-  <si>
-    <t>[-0.3268665671348572]</t>
-  </si>
-  <si>
-    <t>[0.3700087070465088]</t>
-  </si>
-  <si>
-    <t>[0.44053617119789124]</t>
-  </si>
-  <si>
-    <t>[-0.269456684589386]</t>
-  </si>
-  <si>
-    <t>[-0.4147038161754608]</t>
-  </si>
-  <si>
-    <t>[0.029241513460874557]</t>
-  </si>
-  <si>
-    <t>[-0.12610216438770294]</t>
-  </si>
-  <si>
-    <t>[-0.0454692468047142]</t>
-  </si>
-  <si>
-    <t>[-0.024262765422463417]</t>
-  </si>
-  <si>
-    <t>[-0.6000417470932007]</t>
-  </si>
-  <si>
-    <t>[-0.006896038539707661]</t>
-  </si>
-  <si>
-    <t>[-0.5621970295906067]</t>
-  </si>
-  <si>
-    <t>[0.43986570835113525]</t>
-  </si>
-  <si>
-    <t>[0.020072372630238533]</t>
-  </si>
-  <si>
-    <t>[0.08252671360969543]</t>
-  </si>
-  <si>
-    <t>[-0.31293365359306335]</t>
-  </si>
-  <si>
-    <t>[-0.44214218854904175]</t>
-  </si>
-  <si>
-    <t>[-0.5499670505523682]</t>
-  </si>
-  <si>
-    <t>[-0.5902292728424072]</t>
-  </si>
-  <si>
-    <t>[-0.20330412685871124]</t>
-  </si>
-  <si>
-    <t>[0.12384282797574997]</t>
-  </si>
-  <si>
-    <t>[0.08013316243886948]</t>
-  </si>
-  <si>
-    <t>[-0.44427475333213806]</t>
-  </si>
-  <si>
-    <t>[0.43092766404151917]</t>
-  </si>
-  <si>
-    <t>[-0.0805724561214447]</t>
-  </si>
-  <si>
-    <t>[-0.4492446184158325]</t>
-  </si>
-  <si>
-    <t>[0.20428285002708435]</t>
-  </si>
-  <si>
-    <t>[-0.15747219324111938]</t>
-  </si>
-  <si>
-    <t>[0.4941768944263458]</t>
-  </si>
-  <si>
-    <t>[0.1152539998292923]</t>
-  </si>
-  <si>
-    <t>[0.07945607602596283]</t>
-  </si>
-  <si>
-    <t>[0.5104842782020569]</t>
-  </si>
-  <si>
-    <t>[0.12135249376296997]</t>
-  </si>
-  <si>
-    <t>[0.5297337770462036]</t>
-  </si>
-  <si>
-    <t>[-0.3461419641971588]</t>
-  </si>
-  <si>
-    <t>[0.03373749181628227]</t>
-  </si>
-  <si>
-    <t>[-0.4880496561527252]</t>
-  </si>
-  <si>
-    <t>[0.30229616165161133]</t>
-  </si>
-  <si>
-    <t>[-0.3756820261478424]</t>
-  </si>
-  <si>
-    <t>[0.19147413969039917]</t>
-  </si>
-  <si>
-    <t>[-0.24553561210632324]</t>
-  </si>
-  <si>
-    <t>[-0.156271293759346]</t>
-  </si>
-  <si>
-    <t>[0.20980170369148254]</t>
-  </si>
-  <si>
-    <t>[-0.41469019651412964]</t>
-  </si>
-  <si>
-    <t>[0.2138466238975525]</t>
-  </si>
-  <si>
-    <t>[-0.3194848895072937]</t>
-  </si>
-  <si>
-    <t>[0.013647475279867649]</t>
-  </si>
-  <si>
-    <t>[0.03507455810904503]</t>
-  </si>
-  <si>
-    <t>[0.23606322705745697]</t>
-  </si>
-  <si>
-    <t>[-0.5625514388084412]</t>
-  </si>
-  <si>
-    <t>[0.021989520639181137]</t>
-  </si>
-  <si>
-    <t>[0.46702513098716736]</t>
-  </si>
-  <si>
-    <t>[0.20787900686264038]</t>
-  </si>
-  <si>
-    <t>[-0.0054598236456513405]</t>
-  </si>
-  <si>
-    <t>[-0.5122367143630981]</t>
-  </si>
-  <si>
-    <t>[-0.019824493676424026]</t>
-  </si>
-  <si>
-    <t>[-0.05527155473828316]</t>
-  </si>
-  <si>
-    <t>[0.3450995981693268]</t>
-  </si>
-  <si>
-    <t>[-0.4951368570327759]</t>
-  </si>
-  <si>
-    <t>[0.013751009479165077]</t>
-  </si>
-  <si>
-    <t>[-0.5458976626396179]</t>
-  </si>
-  <si>
-    <t>[0.010263080708682537]</t>
-  </si>
-  <si>
-    <t>[-0.3164363503456116]</t>
-  </si>
-  <si>
-    <t>[-0.1884499341249466]</t>
-  </si>
-  <si>
-    <t>[-0.0502796433866024]</t>
-  </si>
-  <si>
-    <t>[-0.01755545847117901]</t>
-  </si>
-  <si>
-    <t>[-0.06889401376247406]</t>
-  </si>
-  <si>
-    <t>[0.08469006419181824]</t>
-  </si>
-  <si>
-    <t>[-0.1835026741027832]</t>
-  </si>
-  <si>
-    <t>[0.2886885702610016]</t>
-  </si>
-  <si>
-    <t>[-0.18061628937721252]</t>
-  </si>
-  <si>
-    <t>[-0.45826923847198486]</t>
-  </si>
-  <si>
-    <t>[0.49636897444725037]</t>
-  </si>
-  <si>
-    <t>[0.4850126802921295]</t>
-  </si>
-  <si>
-    <t>[0.39962634444236755]</t>
-  </si>
-  <si>
-    <t>[-0.2613042891025543]</t>
-  </si>
-  <si>
-    <t>[-0.15802769362926483]</t>
-  </si>
-  <si>
-    <t>[0.18258707225322723]</t>
-  </si>
-  <si>
-    <t>[-0.2326124757528305]</t>
-  </si>
-  <si>
-    <t>[0.24735204875469208]</t>
-  </si>
-  <si>
-    <t>[0.1783524453639984]</t>
-  </si>
-  <si>
-    <t>[0.05256324261426926]</t>
-  </si>
-  <si>
-    <t>[-0.14788012206554413]</t>
-  </si>
-  <si>
-    <t>[-0.5437979698181152]</t>
-  </si>
-  <si>
-    <t>[-0.10346309840679169]</t>
-  </si>
-  <si>
-    <t>[-0.30065494775772095]</t>
-  </si>
-  <si>
-    <t>[0.037011899054050446]</t>
-  </si>
-  <si>
-    <t>[-0.1606273353099823]</t>
-  </si>
-  <si>
-    <t>[-0.0315948911011219]</t>
-  </si>
-  <si>
-    <t>[0.629898190498352]</t>
-  </si>
-  <si>
-    <t>[0.05920843034982681]</t>
-  </si>
-  <si>
-    <t>[0.06668908894062042]</t>
-  </si>
-  <si>
-    <t>[-0.2827438414096832]</t>
-  </si>
-  <si>
-    <t>[0.5176928639411926]</t>
-  </si>
-  <si>
-    <t>[0.36109933257102966]</t>
-  </si>
-  <si>
-    <t>[-0.5389009118080139]</t>
-  </si>
-  <si>
-    <t>[0.2302452176809311]</t>
-  </si>
-  <si>
-    <t>[-0.0074514769949018955]</t>
-  </si>
-  <si>
-    <t>[0.07797464728355408]</t>
-  </si>
-  <si>
-    <t>[-0.35696905851364136]</t>
-  </si>
-  <si>
-    <t>[-0.06353364139795303]</t>
-  </si>
-  <si>
-    <t>[0.16315487027168274]</t>
-  </si>
-  <si>
-    <t>[-0.058093324303627014]</t>
-  </si>
-  <si>
-    <t>[0.2079036384820938]</t>
-  </si>
-  <si>
-    <t>[-0.2425670474767685]</t>
-  </si>
-  <si>
-    <t>[-0.4581145644187927]</t>
-  </si>
-  <si>
-    <t>[0.12497024983167648]</t>
-  </si>
-  <si>
-    <t>[-0.14392778277397156]</t>
-  </si>
-  <si>
-    <t>[0.5945641994476318]</t>
+    <t>[0.6070404648780823]</t>
+  </si>
+  <si>
+    <t>[-0.09259751439094543]</t>
+  </si>
+  <si>
+    <t>[-0.002609014278277755]</t>
+  </si>
+  <si>
+    <t>[0.23422960937023163]</t>
+  </si>
+  <si>
+    <t>[-0.18484163284301758]</t>
+  </si>
+  <si>
+    <t>[-0.39018958806991577]</t>
+  </si>
+  <si>
+    <t>[0.5587115287780762]</t>
+  </si>
+  <si>
+    <t>[0.1396690160036087]</t>
+  </si>
+  <si>
+    <t>[0.13284242153167725]</t>
+  </si>
+  <si>
+    <t>[-0.32955071330070496]</t>
+  </si>
+  <si>
+    <t>[-0.1996145099401474]</t>
+  </si>
+  <si>
+    <t>[-0.43687182664871216]</t>
+  </si>
+  <si>
+    <t>[0.016296643763780594]</t>
+  </si>
+  <si>
+    <t>[-0.13593968749046326]</t>
+  </si>
+  <si>
+    <t>[0.33347657322883606]</t>
+  </si>
+  <si>
+    <t>[-0.14685983955860138]</t>
+  </si>
+  <si>
+    <t>[-0.32197263836860657]</t>
+  </si>
+  <si>
+    <t>[0.13266102969646454]</t>
+  </si>
+  <si>
+    <t>[0.6026908755302429]</t>
+  </si>
+  <si>
+    <t>[0.04719845950603485]</t>
+  </si>
+  <si>
+    <t>[0.4583679139614105]</t>
+  </si>
+  <si>
+    <t>[-0.30895981192588806]</t>
+  </si>
+  <si>
+    <t>[-0.10348533093929291]</t>
+  </si>
+  <si>
+    <t>[0.42578697204589844]</t>
+  </si>
+  <si>
+    <t>[0.08547907322645187]</t>
+  </si>
+  <si>
+    <t>[0.1774299144744873]</t>
+  </si>
+  <si>
+    <t>[-0.4623490869998932]</t>
+  </si>
+  <si>
+    <t>[0.07484844326972961]</t>
+  </si>
+  <si>
+    <t>[0.19343146681785583]</t>
+  </si>
+  <si>
+    <t>[-0.22906051576137543]</t>
+  </si>
+  <si>
+    <t>[-0.2181820571422577]</t>
+  </si>
+  <si>
+    <t>[-0.35962945222854614]</t>
+  </si>
+  <si>
+    <t>[0.2824406623840332]</t>
+  </si>
+  <si>
+    <t>[0.5443996787071228]</t>
+  </si>
+  <si>
+    <t>[-0.09745395928621292]</t>
+  </si>
+  <si>
+    <t>[0.2655167281627655]</t>
+  </si>
+  <si>
+    <t>[0.11026724427938461]</t>
+  </si>
+  <si>
+    <t>[0.1850113570690155]</t>
+  </si>
+  <si>
+    <t>[0.12919370830059052]</t>
+  </si>
+  <si>
+    <t>[-0.25549760460853577]</t>
+  </si>
+  <si>
+    <t>[-0.28932082653045654]</t>
+  </si>
+  <si>
+    <t>[0.04823315143585205]</t>
+  </si>
+  <si>
+    <t>[0.09693450480699539]</t>
+  </si>
+  <si>
+    <t>[-0.12660099565982819]</t>
+  </si>
+  <si>
+    <t>[-0.3539901375770569]</t>
+  </si>
+  <si>
+    <t>[-0.09702141582965851]</t>
+  </si>
+  <si>
+    <t>[0.11578638106584549]</t>
+  </si>
+  <si>
+    <t>[-0.2982654869556427]</t>
+  </si>
+  <si>
+    <t>[-0.5919455289840698]</t>
+  </si>
+  <si>
+    <t>[0.1135622188448906]</t>
+  </si>
+  <si>
+    <t>[-0.1939840465784073]</t>
+  </si>
+  <si>
+    <t>[-0.04855703189969063]</t>
+  </si>
+  <si>
+    <t>[-0.5554525256156921]</t>
+  </si>
+  <si>
+    <t>[0.4294871389865875]</t>
+  </si>
+  <si>
+    <t>[0.01993335410952568]</t>
+  </si>
+  <si>
+    <t>[0.02405565418303013]</t>
+  </si>
+  <si>
+    <t>[0.5661224126815796]</t>
+  </si>
+  <si>
+    <t>[-0.17480653524398804]</t>
+  </si>
+  <si>
+    <t>[-0.4480341374874115]</t>
+  </si>
+  <si>
+    <t>[-0.20130330324172974]</t>
+  </si>
+  <si>
+    <t>[-0.23109276592731476]</t>
+  </si>
+  <si>
+    <t>[0.416764497756958]</t>
+  </si>
+  <si>
+    <t>[-0.05241062864661217]</t>
+  </si>
+  <si>
+    <t>[0.534646213054657]</t>
+  </si>
+  <si>
+    <t>[-0.3855988681316376]</t>
+  </si>
+  <si>
+    <t>[0.21657730638980865]</t>
+  </si>
+  <si>
+    <t>[0.039785560220479965]</t>
+  </si>
+  <si>
+    <t>[-0.3117760121822357]</t>
+  </si>
+  <si>
+    <t>[-0.18740572035312653]</t>
+  </si>
+  <si>
+    <t>[0.15366685390472412]</t>
+  </si>
+  <si>
+    <t>[0.5955047607421875]</t>
+  </si>
+  <si>
+    <t>[-0.06085390970110893]</t>
+  </si>
+  <si>
+    <t>[-0.5014255046844482]</t>
+  </si>
+  <si>
+    <t>[0.054424285888671875]</t>
+  </si>
+  <si>
+    <t>[-0.4447132647037506]</t>
+  </si>
+  <si>
+    <t>[0.33996400237083435]</t>
+  </si>
+  <si>
+    <t>[-0.571309506893158]</t>
+  </si>
+  <si>
+    <t>[0.5547376275062561]</t>
+  </si>
+  <si>
+    <t>[-0.48615434765815735]</t>
+  </si>
+  <si>
+    <t>[0.011343277059495449]</t>
+  </si>
+  <si>
+    <t>[-0.2671484053134918]</t>
+  </si>
+  <si>
+    <t>[-0.2806112468242645]</t>
+  </si>
+  <si>
+    <t>[-0.2590166926383972]</t>
+  </si>
+  <si>
+    <t>[-0.09104439616203308]</t>
+  </si>
+  <si>
+    <t>[-0.20430172979831696]</t>
+  </si>
+  <si>
+    <t>[0.28048738837242126]</t>
+  </si>
+  <si>
+    <t>[-0.08558956533670425]</t>
+  </si>
+  <si>
+    <t>[0.44295284152030945]</t>
+  </si>
+  <si>
+    <t>[-0.010920191183686256]</t>
+  </si>
+  <si>
+    <t>[0.08725228160619736]</t>
+  </si>
+  <si>
+    <t>[0.13623903691768646]</t>
+  </si>
+  <si>
+    <t>[-0.09117180854082108]</t>
+  </si>
+  <si>
+    <t>[-0.39236655831336975]</t>
+  </si>
+  <si>
+    <t>[-0.06398472934961319]</t>
+  </si>
+  <si>
+    <t>[0.06487862765789032]</t>
+  </si>
+  <si>
+    <t>[0.30695196986198425]</t>
+  </si>
+  <si>
+    <t>[-0.14515455067157745]</t>
+  </si>
+  <si>
+    <t>[0.5338821411132812]</t>
+  </si>
+  <si>
+    <t>[-0.10050531476736069]</t>
+  </si>
+  <si>
+    <t>[-0.033267680555582047]</t>
+  </si>
+  <si>
+    <t>[-0.4545878767967224]</t>
+  </si>
+  <si>
+    <t>[0.16956089437007904]</t>
+  </si>
+  <si>
+    <t>[-0.4825303256511688]</t>
+  </si>
+  <si>
+    <t>[0.22202374041080475]</t>
+  </si>
+  <si>
+    <t>[0.5669347643852234]</t>
+  </si>
+  <si>
+    <t>[-0.10748852044343948]</t>
+  </si>
+  <si>
+    <t>[-0.00970214232802391]</t>
+  </si>
+  <si>
+    <t>[0.4895152151584625]</t>
+  </si>
+  <si>
+    <t>[-0.6535539031028748]</t>
+  </si>
+  <si>
+    <t>[-0.1327616423368454]</t>
+  </si>
+  <si>
+    <t>[-0.13599295914173126]</t>
+  </si>
+  <si>
+    <t>[-0.270615816116333]</t>
+  </si>
+  <si>
+    <t>[0.4161575436592102]</t>
+  </si>
+  <si>
+    <t>[-0.04737209901213646]</t>
+  </si>
+  <si>
+    <t>[0.02842712588608265]</t>
+  </si>
+  <si>
+    <t>[-0.5293457508087158]</t>
+  </si>
+  <si>
+    <t>[-0.5140261650085449]</t>
+  </si>
+  <si>
+    <t>[-0.023333754390478134]</t>
+  </si>
+  <si>
+    <t>[0.0319838710129261]</t>
+  </si>
+  <si>
+    <t>[-0.009673372842371464]</t>
+  </si>
+  <si>
+    <t>[-0.5355221033096313]</t>
+  </si>
+  <si>
+    <t>[0.5067644715309143]</t>
+  </si>
+  <si>
+    <t>[-0.41130051016807556]</t>
+  </si>
+  <si>
+    <t>[0.11140374094247818]</t>
+  </si>
+  <si>
+    <t>[-0.5356498956680298]</t>
+  </si>
+  <si>
+    <t>[-0.16175870597362518]</t>
+  </si>
+  <si>
+    <t>[-0.20060785114765167]</t>
+  </si>
+  <si>
+    <t>[-0.4584527015686035]</t>
+  </si>
+  <si>
+    <t>[0.2815796732902527]</t>
+  </si>
+  <si>
+    <t>[-0.2938682436943054]</t>
+  </si>
+  <si>
+    <t>[0.3265962302684784]</t>
+  </si>
+  <si>
+    <t>[0.20741717517375946]</t>
+  </si>
+  <si>
+    <t>[-0.5470209717750549]</t>
+  </si>
+  <si>
+    <t>[-0.047212354838848114]</t>
+  </si>
+  <si>
+    <t>[-0.44888952374458313]</t>
+  </si>
+  <si>
+    <t>[0.2910344898700714]</t>
+  </si>
+  <si>
+    <t>[-0.4045558571815491]</t>
+  </si>
+  <si>
+    <t>[-0.16023552417755127]</t>
+  </si>
+  <si>
+    <t>[-0.4583967328071594]</t>
+  </si>
+  <si>
+    <t>[-0.4751839339733124]</t>
+  </si>
+  <si>
+    <t>[0.06644266843795776]</t>
+  </si>
+  <si>
+    <t>[0.3972512483596802]</t>
+  </si>
+  <si>
+    <t>[0.6321805119514465]</t>
+  </si>
+  <si>
+    <t>[-0.47999799251556396]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -475,436 +475,436 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.028782954439520836]</t>
-  </si>
-  <si>
-    <t>[-0.1038772240281105]</t>
-  </si>
-  <si>
-    <t>[-0.45138347148895264]</t>
-  </si>
-  <si>
-    <t>[0.15623225271701813]</t>
-  </si>
-  <si>
-    <t>[-0.12546731531620026]</t>
-  </si>
-  <si>
-    <t>[-0.3107815086841583]</t>
-  </si>
-  <si>
-    <t>[0.10976849496364594]</t>
-  </si>
-  <si>
-    <t>[-0.5254468321800232]</t>
-  </si>
-  <si>
-    <t>[-0.16366367042064667]</t>
-  </si>
-  <si>
-    <t>[0.13195297122001648]</t>
-  </si>
-  <si>
-    <t>[-0.06645888090133667]</t>
-  </si>
-  <si>
-    <t>[0.21499644219875336]</t>
-  </si>
-  <si>
-    <t>[-0.3092626631259918]</t>
-  </si>
-  <si>
-    <t>[0.046588070690631866]</t>
-  </si>
-  <si>
-    <t>[-0.25620874762535095]</t>
-  </si>
-  <si>
-    <t>[-0.3797765374183655]</t>
-  </si>
-  <si>
-    <t>[-0.16880398988723755]</t>
-  </si>
-  <si>
-    <t>[0.023853128775954247]</t>
-  </si>
-  <si>
-    <t>[-0.012317744083702564]</t>
-  </si>
-  <si>
-    <t>[0.09296885132789612]</t>
-  </si>
-  <si>
-    <t>[0.1968361884355545]</t>
-  </si>
-  <si>
-    <t>[-0.13892538845539093]</t>
-  </si>
-  <si>
-    <t>[0.10711068660020828]</t>
-  </si>
-  <si>
-    <t>[0.1874578893184662]</t>
-  </si>
-  <si>
-    <t>[0.06321202218532562]</t>
-  </si>
-  <si>
-    <t>[-0.3517478108406067]</t>
-  </si>
-  <si>
-    <t>[-0.0798339769244194]</t>
-  </si>
-  <si>
-    <t>[0.10637914389371872]</t>
-  </si>
-  <si>
-    <t>[-0.07834583520889282]</t>
-  </si>
-  <si>
-    <t>[0.026452062651515007]</t>
-  </si>
-  <si>
-    <t>[-0.19808410108089447]</t>
-  </si>
-  <si>
-    <t>[0.2619255781173706]</t>
-  </si>
-  <si>
-    <t>[-0.574484646320343]</t>
-  </si>
-  <si>
-    <t>[-0.40040314197540283]</t>
-  </si>
-  <si>
-    <t>[0.3114356994628906]</t>
-  </si>
-  <si>
-    <t>[-0.21535755693912506]</t>
-  </si>
-  <si>
-    <t>[-0.029542936012148857]</t>
-  </si>
-  <si>
-    <t>[0.13670769333839417]</t>
-  </si>
-  <si>
-    <t>[-0.1451454758644104]</t>
-  </si>
-  <si>
-    <t>[0.49074703454971313]</t>
-  </si>
-  <si>
-    <t>[0.02138533629477024]</t>
-  </si>
-  <si>
-    <t>[0.07854929566383362]</t>
-  </si>
-  <si>
-    <t>[-0.2855359613895416]</t>
-  </si>
-  <si>
-    <t>[0.1826501339673996]</t>
-  </si>
-  <si>
-    <t>[0.4369727671146393]</t>
-  </si>
-  <si>
-    <t>[0.013731536455452442]</t>
-  </si>
-  <si>
-    <t>[0.19511057436466217]</t>
-  </si>
-  <si>
-    <t>[-0.2624587416648865]</t>
-  </si>
-  <si>
-    <t>[-0.04640119522809982]</t>
-  </si>
-  <si>
-    <t>[0.07256432622671127]</t>
-  </si>
-  <si>
-    <t>[-0.1830943524837494]</t>
-  </si>
-  <si>
-    <t>[-0.21178622543811798]</t>
-  </si>
-  <si>
-    <t>[-0.264654278755188]</t>
-  </si>
-  <si>
-    <t>[0.25318509340286255]</t>
-  </si>
-  <si>
-    <t>[0.2778197228908539]</t>
-  </si>
-  <si>
-    <t>[0.35887497663497925]</t>
-  </si>
-  <si>
-    <t>[0.16440287232398987]</t>
-  </si>
-  <si>
-    <t>[-0.20602023601531982]</t>
-  </si>
-  <si>
-    <t>[-0.02939046360552311]</t>
-  </si>
-  <si>
-    <t>[-0.2527308762073517]</t>
-  </si>
-  <si>
-    <t>[-0.18795061111450195]</t>
-  </si>
-  <si>
-    <t>[0.24140863120555878]</t>
-  </si>
-  <si>
-    <t>[-0.1880270540714264]</t>
-  </si>
-  <si>
-    <t>[0.48609012365341187]</t>
-  </si>
-  <si>
-    <t>[-0.14777718484401703]</t>
-  </si>
-  <si>
-    <t>[0.15332381427288055]</t>
-  </si>
-  <si>
-    <t>[0.2874701917171478]</t>
-  </si>
-  <si>
-    <t>[0.23105959594249725]</t>
-  </si>
-  <si>
-    <t>[0.2802744507789612]</t>
-  </si>
-  <si>
-    <t>[-0.45352715253829956]</t>
-  </si>
-  <si>
-    <t>[0.16552503407001495]</t>
-  </si>
-  <si>
-    <t>[0.002863829955458641]</t>
-  </si>
-  <si>
-    <t>[0.33154645562171936]</t>
-  </si>
-  <si>
-    <t>[0.1902495175600052]</t>
-  </si>
-  <si>
-    <t>[0.01685223914682865]</t>
-  </si>
-  <si>
-    <t>[-0.33030828833580017]</t>
-  </si>
-  <si>
-    <t>[0.1171550378203392]</t>
-  </si>
-  <si>
-    <t>[0.04153637960553169]</t>
-  </si>
-  <si>
-    <t>[0.1757557988166809]</t>
-  </si>
-  <si>
-    <t>[0.004160543903708458]</t>
-  </si>
-  <si>
-    <t>[-0.09689372032880783]</t>
-  </si>
-  <si>
-    <t>[0.09722314774990082]</t>
-  </si>
-  <si>
-    <t>[-0.5980618000030518]</t>
-  </si>
-  <si>
-    <t>[0.10934259742498398]</t>
-  </si>
-  <si>
-    <t>[0.2469177544116974]</t>
-  </si>
-  <si>
-    <t>[0.3026687204837799]</t>
-  </si>
-  <si>
-    <t>[-0.1418345868587494]</t>
-  </si>
-  <si>
-    <t>[-0.12335760146379471]</t>
-  </si>
-  <si>
-    <t>[-0.15687622129917145]</t>
-  </si>
-  <si>
-    <t>[0.2477353811264038]</t>
-  </si>
-  <si>
-    <t>[-0.03864795342087746]</t>
-  </si>
-  <si>
-    <t>[0.35765522718429565]</t>
-  </si>
-  <si>
-    <t>[-0.3734322190284729]</t>
-  </si>
-  <si>
-    <t>[0.5292215943336487]</t>
-  </si>
-  <si>
-    <t>[-0.34538504481315613]</t>
-  </si>
-  <si>
-    <t>[0.17633089423179626]</t>
-  </si>
-  <si>
-    <t>[0.06419505178928375]</t>
-  </si>
-  <si>
-    <t>[0.5028476119041443]</t>
-  </si>
-  <si>
-    <t>[-0.06032118201255798]</t>
-  </si>
-  <si>
-    <t>[-0.1942456066608429]</t>
-  </si>
-  <si>
-    <t>[0.2462536245584488]</t>
-  </si>
-  <si>
-    <t>[-0.05050867423415184]</t>
-  </si>
-  <si>
-    <t>[0.003945881500840187]</t>
-  </si>
-  <si>
-    <t>[0.2769586145877838]</t>
-  </si>
-  <si>
-    <t>[0.09839188307523727]</t>
-  </si>
-  <si>
-    <t>[0.036962904036045074]</t>
-  </si>
-  <si>
-    <t>[-0.2198212891817093]</t>
-  </si>
-  <si>
-    <t>[-0.25826483964920044]</t>
-  </si>
-  <si>
-    <t>[-0.27963533997535706]</t>
-  </si>
-  <si>
-    <t>[0.38180020451545715]</t>
-  </si>
-  <si>
-    <t>[-0.10902923345565796]</t>
-  </si>
-  <si>
-    <t>[0.24546121060848236]</t>
-  </si>
-  <si>
-    <t>[0.05567306652665138]</t>
-  </si>
-  <si>
-    <t>[-0.23689214885234833]</t>
-  </si>
-  <si>
-    <t>[-0.3675000071525574]</t>
-  </si>
-  <si>
-    <t>[-0.05244457349181175]</t>
-  </si>
-  <si>
-    <t>[0.11176623404026031]</t>
-  </si>
-  <si>
-    <t>[0.018968619406223297]</t>
-  </si>
-  <si>
-    <t>[0.3323913812637329]</t>
-  </si>
-  <si>
-    <t>[-0.220878466963768]</t>
-  </si>
-  <si>
-    <t>[-0.2215166687965393]</t>
-  </si>
-  <si>
-    <t>[0.09529494494199753]</t>
-  </si>
-  <si>
-    <t>[-0.04447067901492119]</t>
-  </si>
-  <si>
-    <t>[-0.24250762164592743]</t>
-  </si>
-  <si>
-    <t>[0.3880752921104431]</t>
-  </si>
-  <si>
-    <t>[0.08727662265300751]</t>
-  </si>
-  <si>
-    <t>[0.6267248392105103]</t>
-  </si>
-  <si>
-    <t>[-0.0026043718680739403]</t>
-  </si>
-  <si>
-    <t>[0.24925899505615234]</t>
-  </si>
-  <si>
-    <t>[0.004383825231343508]</t>
-  </si>
-  <si>
-    <t>[-0.2975221574306488]</t>
-  </si>
-  <si>
-    <t>[-0.27732688188552856]</t>
-  </si>
-  <si>
-    <t>[0.22817057371139526]</t>
-  </si>
-  <si>
-    <t>[0.055811453610658646]</t>
-  </si>
-  <si>
-    <t>[-0.052565816789865494]</t>
-  </si>
-  <si>
-    <t>[0.005312253721058369]</t>
-  </si>
-  <si>
-    <t>[-0.23470789194107056]</t>
-  </si>
-  <si>
-    <t>[0.1351705640554428]</t>
-  </si>
-  <si>
-    <t>[-0.27570652961730957]</t>
-  </si>
-  <si>
-    <t>[0.06901385635137558]</t>
-  </si>
-  <si>
-    <t>[0.010331901721656322]</t>
-  </si>
-  <si>
-    <t>[0.10325198620557785]</t>
-  </si>
-  <si>
-    <t>[-0.6180199384689331]</t>
-  </si>
-  <si>
-    <t>[-0.37320369482040405]</t>
+    <t>[-0.08761656284332275]</t>
+  </si>
+  <si>
+    <t>[0.1541624367237091]</t>
+  </si>
+  <si>
+    <t>[-0.14617599546909332]</t>
+  </si>
+  <si>
+    <t>[0.13137951493263245]</t>
+  </si>
+  <si>
+    <t>[0.1221187487244606]</t>
+  </si>
+  <si>
+    <t>[0.0845477357506752]</t>
+  </si>
+  <si>
+    <t>[-0.12123763561248779]</t>
+  </si>
+  <si>
+    <t>[0.04703744873404503]</t>
+  </si>
+  <si>
+    <t>[0.4806808531284332]</t>
+  </si>
+  <si>
+    <t>[-0.07127909362316132]</t>
+  </si>
+  <si>
+    <t>[-0.08206634968519211]</t>
+  </si>
+  <si>
+    <t>[0.31690678000450134]</t>
+  </si>
+  <si>
+    <t>[-0.22850669920444489]</t>
+  </si>
+  <si>
+    <t>[0.4899967312812805]</t>
+  </si>
+  <si>
+    <t>[-0.17647609114646912]</t>
+  </si>
+  <si>
+    <t>[0.11850236356258392]</t>
+  </si>
+  <si>
+    <t>[-0.41691526770591736]</t>
+  </si>
+  <si>
+    <t>[0.061294134706258774]</t>
+  </si>
+  <si>
+    <t>[0.3168761730194092]</t>
+  </si>
+  <si>
+    <t>[0.37660443782806396]</t>
+  </si>
+  <si>
+    <t>[-0.20785391330718994]</t>
+  </si>
+  <si>
+    <t>[-0.1509135514497757]</t>
+  </si>
+  <si>
+    <t>[0.023736916482448578]</t>
+  </si>
+  <si>
+    <t>[-0.23649834096431732]</t>
+  </si>
+  <si>
+    <t>[0.26390770077705383]</t>
+  </si>
+  <si>
+    <t>[0.01993432268500328]</t>
+  </si>
+  <si>
+    <t>[0.451572448015213]</t>
+  </si>
+  <si>
+    <t>[0.26905491948127747]</t>
+  </si>
+  <si>
+    <t>[-0.12434422224760056]</t>
+  </si>
+  <si>
+    <t>[-0.18460646271705627]</t>
+  </si>
+  <si>
+    <t>[0.06903301179409027]</t>
+  </si>
+  <si>
+    <t>[-0.05307416245341301]</t>
+  </si>
+  <si>
+    <t>[-0.10810773819684982]</t>
+  </si>
+  <si>
+    <t>[-0.21498630940914154]</t>
+  </si>
+  <si>
+    <t>[-0.2946540117263794]</t>
+  </si>
+  <si>
+    <t>[-0.1387081742286682]</t>
+  </si>
+  <si>
+    <t>[0.3127864599227905]</t>
+  </si>
+  <si>
+    <t>[-0.24949298799037933]</t>
+  </si>
+  <si>
+    <t>[0.3586408197879791]</t>
+  </si>
+  <si>
+    <t>[-0.19835756719112396]</t>
+  </si>
+  <si>
+    <t>[-0.23712649941444397]</t>
+  </si>
+  <si>
+    <t>[0.028706936165690422]</t>
+  </si>
+  <si>
+    <t>[0.1892053335905075]</t>
+  </si>
+  <si>
+    <t>[-0.2978519797325134]</t>
+  </si>
+  <si>
+    <t>[-0.14468897879123688]</t>
+  </si>
+  <si>
+    <t>[-0.6297410726547241]</t>
+  </si>
+  <si>
+    <t>[-0.13102325797080994]</t>
+  </si>
+  <si>
+    <t>[-0.029398735612630844]</t>
+  </si>
+  <si>
+    <t>[0.3583258390426636]</t>
+  </si>
+  <si>
+    <t>[-0.17373104393482208]</t>
+  </si>
+  <si>
+    <t>[0.16533200442790985]</t>
+  </si>
+  <si>
+    <t>[-0.1517930030822754]</t>
+  </si>
+  <si>
+    <t>[0.44771242141723633]</t>
+  </si>
+  <si>
+    <t>[-0.048329517245292664]</t>
+  </si>
+  <si>
+    <t>[0.3793260455131531]</t>
+  </si>
+  <si>
+    <t>[0.04469570145010948]</t>
+  </si>
+  <si>
+    <t>[0.3255431056022644]</t>
+  </si>
+  <si>
+    <t>[-0.058892205357551575]</t>
+  </si>
+  <si>
+    <t>[0.2014911025762558]</t>
+  </si>
+  <si>
+    <t>[-0.17733095586299896]</t>
+  </si>
+  <si>
+    <t>[-0.054402392357587814]</t>
+  </si>
+  <si>
+    <t>[-0.3483312129974365]</t>
+  </si>
+  <si>
+    <t>[0.01702168770134449]</t>
+  </si>
+  <si>
+    <t>[0.0039411745965480804]</t>
+  </si>
+  <si>
+    <t>[0.01668466255068779]</t>
+  </si>
+  <si>
+    <t>[-0.03466269373893738]</t>
+  </si>
+  <si>
+    <t>[-0.1756872832775116]</t>
+  </si>
+  <si>
+    <t>[-0.09127947688102722]</t>
+  </si>
+  <si>
+    <t>[-0.05741265043616295]</t>
+  </si>
+  <si>
+    <t>[-0.04864856228232384]</t>
+  </si>
+  <si>
+    <t>[-0.2200799435377121]</t>
+  </si>
+  <si>
+    <t>[0.5298824310302734]</t>
+  </si>
+  <si>
+    <t>[-0.1722934991121292]</t>
+  </si>
+  <si>
+    <t>[-0.18144650757312775]</t>
+  </si>
+  <si>
+    <t>[-0.3169110417366028]</t>
+  </si>
+  <si>
+    <t>[0.0788130983710289]</t>
+  </si>
+  <si>
+    <t>[-0.2637399435043335]</t>
+  </si>
+  <si>
+    <t>[0.3842378556728363]</t>
+  </si>
+  <si>
+    <t>[-0.4597979187965393]</t>
+  </si>
+  <si>
+    <t>[0.10082155466079712]</t>
+  </si>
+  <si>
+    <t>[0.3177849054336548]</t>
+  </si>
+  <si>
+    <t>[0.036397941410541534]</t>
+  </si>
+  <si>
+    <t>[0.2099376618862152]</t>
+  </si>
+  <si>
+    <t>[-0.04250502958893776]</t>
+  </si>
+  <si>
+    <t>[-0.290221244096756]</t>
+  </si>
+  <si>
+    <t>[0.018391907215118408]</t>
+  </si>
+  <si>
+    <t>[0.032946862280368805]</t>
+  </si>
+  <si>
+    <t>[0.08799640834331512]</t>
+  </si>
+  <si>
+    <t>[-0.03682558611035347]</t>
+  </si>
+  <si>
+    <t>[0.02297929674386978]</t>
+  </si>
+  <si>
+    <t>[0.22891861200332642]</t>
+  </si>
+  <si>
+    <t>[-0.08044768124818802]</t>
+  </si>
+  <si>
+    <t>[-0.6717877388000488]</t>
+  </si>
+  <si>
+    <t>[0.4371165335178375]</t>
+  </si>
+  <si>
+    <t>[0.3394588828086853]</t>
+  </si>
+  <si>
+    <t>[-0.17564798891544342]</t>
+  </si>
+  <si>
+    <t>[0.009615552611649036]</t>
+  </si>
+  <si>
+    <t>[-0.2726452946662903]</t>
+  </si>
+  <si>
+    <t>[0.11521908640861511]</t>
+  </si>
+  <si>
+    <t>[-0.059269629418849945]</t>
+  </si>
+  <si>
+    <t>[0.07990837097167969]</t>
+  </si>
+  <si>
+    <t>[-0.19881850481033325]</t>
+  </si>
+  <si>
+    <t>[0.7068143486976624]</t>
+  </si>
+  <si>
+    <t>[0.0431138277053833]</t>
+  </si>
+  <si>
+    <t>[-0.3648260235786438]</t>
+  </si>
+  <si>
+    <t>[-0.20141248404979706]</t>
+  </si>
+  <si>
+    <t>[0.18204107880592346]</t>
+  </si>
+  <si>
+    <t>[-0.28618642687797546]</t>
+  </si>
+  <si>
+    <t>[0.24401281774044037]</t>
+  </si>
+  <si>
+    <t>[0.09557757526636124]</t>
+  </si>
+  <si>
+    <t>[0.2948538661003113]</t>
+  </si>
+  <si>
+    <t>[-0.20534029603004456]</t>
+  </si>
+  <si>
+    <t>[0.10045716166496277]</t>
+  </si>
+  <si>
+    <t>[-0.26480183005332947]</t>
+  </si>
+  <si>
+    <t>[0.31963202357292175]</t>
+  </si>
+  <si>
+    <t>[-0.12478020787239075]</t>
+  </si>
+  <si>
+    <t>[0.11002980917692184]</t>
+  </si>
+  <si>
+    <t>[-0.23944339156150818]</t>
+  </si>
+  <si>
+    <t>[0.07664668560028076]</t>
+  </si>
+  <si>
+    <t>[-0.1958225965499878]</t>
+  </si>
+  <si>
+    <t>[-0.045228566974401474]</t>
+  </si>
+  <si>
+    <t>[0.11678200960159302]</t>
+  </si>
+  <si>
+    <t>[-0.21537162363529205]</t>
+  </si>
+  <si>
+    <t>[-0.11411718279123306]</t>
+  </si>
+  <si>
+    <t>[0.27748921513557434]</t>
+  </si>
+  <si>
+    <t>[0.2645583152770996]</t>
+  </si>
+  <si>
+    <t>[-0.3918617069721222]</t>
+  </si>
+  <si>
+    <t>[-0.133622944355011]</t>
+  </si>
+  <si>
+    <t>[0.011900417506694794]</t>
+  </si>
+  <si>
+    <t>[0.06348451226949692]</t>
+  </si>
+  <si>
+    <t>[0.25997740030288696]</t>
+  </si>
+  <si>
+    <t>[0.37693995237350464]</t>
+  </si>
+  <si>
+    <t>[-0.2769932746887207]</t>
+  </si>
+  <si>
+    <t>[0.17517420649528503]</t>
+  </si>
+  <si>
+    <t>[-0.40784120559692383]</t>
+  </si>
+  <si>
+    <t>[-0.357857346534729]</t>
+  </si>
+  <si>
+    <t>[0.47362470626831055]</t>
+  </si>
+  <si>
+    <t>[0.18167813122272491]</t>
+  </si>
+  <si>
+    <t>[-0.11025146394968033]</t>
+  </si>
+  <si>
+    <t>[-0.30428552627563477]</t>
+  </si>
+  <si>
+    <t>[-0.3510861396789551]</t>
+  </si>
+  <si>
+    <t>[-0.047870736569166183]</t>
+  </si>
+  <si>
+    <t>[0.12828199565410614]</t>
+  </si>
+  <si>
+    <t>[-0.11670614033937454]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -919,76 +919,76 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.1669117957353592]</t>
-  </si>
-  <si>
-    <t>[1.2064063549041748]</t>
-  </si>
-  <si>
-    <t>[-0.16511847078800201]</t>
-  </si>
-  <si>
-    <t>[0.05564179643988609]</t>
-  </si>
-  <si>
-    <t>[0.2204761952161789]</t>
-  </si>
-  <si>
-    <t>[1.1757196187973022]</t>
-  </si>
-  <si>
-    <t>[0.23071563243865967]</t>
-  </si>
-  <si>
-    <t>[-0.00656950194388628]</t>
-  </si>
-  <si>
-    <t>[0.22096392512321472]</t>
-  </si>
-  <si>
-    <t>[1.204192042350769]</t>
-  </si>
-  <si>
-    <t>[-0.2397109568119049]</t>
-  </si>
-  <si>
-    <t>[0.013995286077260971]</t>
-  </si>
-  <si>
-    <t>[0.24394364655017853]</t>
-  </si>
-  <si>
-    <t>[1.1734886169433594]</t>
-  </si>
-  <si>
-    <t>[-0.21939070522785187]</t>
-  </si>
-  <si>
-    <t>[-0.02914392203092575]</t>
-  </si>
-  <si>
-    <t>[-0.11311440914869308]</t>
-  </si>
-  <si>
-    <t>[1.1881694793701172]</t>
-  </si>
-  <si>
-    <t>[-0.17012031376361847]</t>
-  </si>
-  <si>
-    <t>[-0.001176492776721716]</t>
-  </si>
-  <si>
-    <t>[-0.25279924273490906]</t>
-  </si>
-  <si>
-    <t>[1.2388194799423218]</t>
-  </si>
-  <si>
-    <t>[-0.2464361935853958]</t>
-  </si>
-  <si>
-    <t>[0.04290004447102547]</t>
+    <t>[-0.24605216085910797]</t>
+  </si>
+  <si>
+    <t>[1.2129790782928467]</t>
+  </si>
+  <si>
+    <t>[-0.24959447979927063]</t>
+  </si>
+  <si>
+    <t>[0.07196102291345596]</t>
+  </si>
+  <si>
+    <t>[-0.18767087161540985]</t>
+  </si>
+  <si>
+    <t>[1.1649224758148193]</t>
+  </si>
+  <si>
+    <t>[-0.23352287709712982]</t>
+  </si>
+  <si>
+    <t>[-0.06577380001544952]</t>
+  </si>
+  <si>
+    <t>[0.18927399814128876]</t>
+  </si>
+  <si>
+    <t>[1.1218897104263306]</t>
+  </si>
+  <si>
+    <t>[-0.06863151490688324]</t>
+  </si>
+  <si>
+    <t>[0.14014439284801483]</t>
+  </si>
+  <si>
+    <t>[-0.24163274466991425]</t>
+  </si>
+  <si>
+    <t>[1.2072830200195312]</t>
+  </si>
+  <si>
+    <t>[-0.23985128104686737]</t>
+  </si>
+  <si>
+    <t>[0.05977272242307663]</t>
+  </si>
+  <si>
+    <t>[-0.05030220374464989]</t>
+  </si>
+  <si>
+    <t>[1.0812486410140991]</t>
+  </si>
+  <si>
+    <t>[-0.23374198377132416]</t>
+  </si>
+  <si>
+    <t>[-0.14542168378829956]</t>
+  </si>
+  <si>
+    <t>[-0.2228032946586609]</t>
+  </si>
+  <si>
+    <t>[1.1860088109970093]</t>
+  </si>
+  <si>
+    <t>[0.22324936091899872]</t>
+  </si>
+  <si>
+    <t>[-0.08411943912506104]</t>
   </si>
 </sst>
 </file>
